--- a/2025-08-18 Result Table.xlsx
+++ b/2025-08-18 Result Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Project\CoachingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A04606-97B9-4943-A9EB-DB727DE2E1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9791217-A6BB-451B-AB9F-1A2832D72B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38490" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{4A6D4074-EFA4-40EF-9F34-52149E579440}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4A6D4074-EFA4-40EF-9F34-52149E579440}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,87 @@
     <t>RMSE</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>XGBoost Regressor Metric</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <r>
+      <t>Test, Human Decisions</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decision Improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Assuming all GMs believe that their selected HC is class 2; not influenced by any model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Model performance vs. human baseline</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>R</t>
     </r>
@@ -71,138 +152,47 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
+    <r>
+      <t>Test, Expected Outcome</t>
+    </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Assuming all GMs believe that their selected HC is class 2; not influenced by any model</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Test, Human Decisions</t>
-    </r>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Test, Expected Outcome</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Model performance vs. human baseline</t>
-    </r>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <t>Decision Improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>XGBoost Regressor Metric</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Not influenced by any model; result of always predicting the mean</t>
     </r>
-  </si>
-  <si>
-    <t>MAE</t>
   </si>
 </sst>
 </file>
@@ -210,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,29 +212,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -642,94 +635,94 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,10 +1062,10 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1080,173 +1073,173 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.81299999999999994</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>0.628</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19">
+    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.5</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="22">
+    <row r="9" spans="2:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19">
         <f>D7/D8</f>
         <v>4.8307692307692305</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="29" t="s">
+    </row>
+    <row r="15" spans="2:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.24E-2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.1085</v>
+      </c>
+      <c r="D16" s="26">
+        <v>7.85E-2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.70179999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.1023</v>
+      </c>
+      <c r="D17" s="26">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.76949999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.1676</v>
+      </c>
+      <c r="E18" s="30">
+        <v>-1.09E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1.24E-2</v>
-      </c>
-      <c r="D15" s="23">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.99539999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.1085</v>
-      </c>
-      <c r="D16" s="24">
-        <v>7.85E-2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.70179999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.1023</v>
-      </c>
-      <c r="D17" s="24">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.76949999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.1676</v>
-      </c>
-      <c r="E18" s="17">
-        <v>-1.09E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
